--- a/biology/Botanique/Polemoniaceae/Polemoniaceae.xlsx
+++ b/biology/Botanique/Polemoniaceae/Polemoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Polemoniaceae (Les Polémoniacées en français) sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales, selon la classification phylogénétique. Elle comprend environ 400 espèces réparties en près de 18 à 26 genres.
 Ce sont des plantes herbacées, parfois des arbustes ou des lianes des régions tempérées essentiellement d'Amérique.
@@ -515,13 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom vient du genre type Polemonium, forme latinisée du grec ancien πόλεμος / polemos, « guerre ». Le nom πολεμωνιόν / polemonion, est attesté chez le médecin et botaniste grec Dioscoride[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Polemonium, forme latinisée du grec ancien πόλεμος / polemos, « guerre ». Le nom πολεμωνιόν / polemonion, est attesté chez le médecin et botaniste grec Dioscoride.
 D’après Alexandre de Théis, 
-« Pline rapporte, livre 25 chapitre 6, que cette plante fut nommée ainsi parce qu’elle devint la cause d’une guerre entre deux rois qui s’en attribuèrent la découverte, c’est-à-dire celle de ses propriétés. Elle était tellement renommée, qu’on l’appelait aussi chilodynamie, c’est-à-dire ayant mille vertus. On ne connaît pas avec certitude la plante à laquelle les anciens donnaient ce nom[2]. »
-Noms vernaculaires
-Le genre est nommé communément  « polémoine », « échelle de Jacob », « échelle du ciel », « herbe de barrière » ou encore « bleu-or ».
-D’après Théis, « on la nomme aussi valériane grecque. Ses feuilles offrent quelques ressemblances avec celles de la valériane commune[note 1], mais l’épithète de  grecque est impropre (car) elle croît en Allemagne, en Angleterre, etc.[2]. »
+« Pline rapporte, livre 25 chapitre 6, que cette plante fut nommée ainsi parce qu’elle devint la cause d’une guerre entre deux rois qui s’en attribuèrent la découverte, c’est-à-dire celle de ses propriétés. Elle était tellement renommée, qu’on l’appelait aussi chilodynamie, c’est-à-dire ayant mille vertus. On ne connaît pas avec certitude la plante à laquelle les anciens donnaient ce nom. »
 </t>
         </is>
       </c>
@@ -547,12 +561,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La classification phylogénétique la situe dans l'ordre des Ericales et y incorpore, sous forme de sous-famille, les Cobaeaceae à appeler plus proprement Cobaeoideae (es), avec son genre type Cobaea, qui sont des arbustes originaires d'Amérique centrale.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est nommé communément  « polémoine », « échelle de Jacob », « échelle du ciel », « herbe de barrière » ou encore « bleu-or ».
+D’après Théis, « on la nomme aussi valériane grecque. Ses feuilles offrent quelques ressemblances avec celles de la valériane commune[note 1], mais l’épithète de  grecque est impropre (car) elle croît en Allemagne, en Angleterre, etc.. »
 </t>
         </is>
       </c>
@@ -578,10 +599,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique la situe dans l'ordre des Ericales et y incorpore, sous forme de sous-famille, les Cobaeaceae à appeler plus proprement Cobaeoideae (es), avec son genre type Cobaea, qui sont des arbustes originaires d'Amérique centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Polemoniaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polemoniaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les genres les plus importants, on peut citer :
 Phlox avec près de 70 espèces
@@ -589,7 +645,7 @@
 Navarretia (en) avec 30 espèces
 Polemonium avec 27 espèces
 Gilia avec 25 espèces
-Selon Angiosperm Phylogeny Website                        (29 Jun 2010)[3] :
+Selon Angiosperm Phylogeny Website                        (29 Jun 2010) :
 Acanthogilia (en) A.G.Day &amp; Moran
 Allophyllum (en) (Nutt.) A.D.Grant &amp; V.E.Grant
 Bonplandia (es) Cavanilles
@@ -610,7 +666,7 @@
 Navarretia (en) Ruiz &amp; Pavon
 Phlox L.
 Polemonium L.
-Selon NCBI  (29 Jun 2010)[4] :
+Selon NCBI  (29 Jun 2010) :
 Acanthogilia
 Aliciella
 Allophyllum
@@ -637,7 +693,7 @@
 Phlox
 Polemonium
 Saltugilia
-Selon DELTA Angio           (29 Jun 2010)[5] :
+Selon DELTA Angio           (29 Jun 2010) :
 Acanthogilia
 Allophyllum
 Bonplandia
@@ -656,7 +712,7 @@
 Navarretia
 Phlox
 Polemonium
-Selon ITIS      (29 Jun 2010)[6] :
+Selon ITIS      (29 Jun 2010) :
 Allophyllum (Nutt.) A.et V. Grant
 Collomia Nutt.
 Eriastrum Woot. &amp; Standl.
